--- a/file/TGE-411-YilanHotel.xlsx
+++ b/file/TGE-411-YilanHotel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangtaichung/Documents/7_WebSite/7.7_TravelGuide/TravelGuide-EastCoast/file/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1FA2DB6-1698-4E49-8EEC-15B039FB3F5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E495F3DB-B72C-AA4C-A4D2-DF06B70F6563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27640" yWindow="11780" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
+    <workbookView xWindow="19600" yWindow="11240" windowWidth="30560" windowHeight="17560" xr2:uid="{D3AFD15B-93CE-274B-9649-165B08EE0016}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -262,6 +262,28 @@
   <si>
     <t>fig/TGE-4111-YilanHotel-21.jpeg</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒沐酒店</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宜蘭縣礁溪鄉健康路 1 號</t>
+  </si>
+  <si>
+    <t>886-3-905-8000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fig/TGE-4111-YilanHotel-22.jpeg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.muhotels.com/</t>
   </si>
 </sst>
 </file>
@@ -271,7 +293,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="&quot;NT$&quot;#,##0_);\(&quot;NT$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -303,6 +325,12 @@
       <family val="2"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4E4E4E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +357,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -352,6 +380,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -669,13 +700,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B381011-57CE-744B-93B5-4755BEF67163}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="9" ySplit="1" topLeftCell="J2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomRight" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -727,7 +758,7 @@
     </row>
     <row r="2" spans="1:10" ht="16">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
         <v>12</v>
@@ -735,63 +766,63 @@
       <c r="C2" t="s">
         <v>59</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="5">
-        <v>3.5</v>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2">
+        <v>4.5</v>
       </c>
       <c r="F2" s="6">
-        <v>3654</v>
+        <v>8571</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="16">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B3" t="s">
         <v>12</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" t="s">
-        <v>25</v>
+        <v>58</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>63</v>
       </c>
       <c r="E3">
         <v>4.5</v>
       </c>
       <c r="F3" s="6">
-        <v>8571</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>38</v>
+        <v>4753</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>64</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>19</v>
+        <v>66</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="16">
+    <row r="4" spans="1:10" ht="19">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
         <v>12</v>
@@ -800,62 +831,62 @@
         <v>58</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E4">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="6">
-        <v>3960</v>
+        <v>7200</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>57</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="4" t="s">
-        <v>40</v>
+        <v>61</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="16">
+    <row r="5" spans="1:10" ht="19">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="F5" s="6">
-        <v>4465</v>
+        <v>6850</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>54</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" t="s">
         <v>12</v>
@@ -864,30 +895,30 @@
         <v>58</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>4</v>
       </c>
       <c r="F6" s="6">
-        <v>5276</v>
+        <v>6272</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>51</v>
+        <v>23</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -896,62 +927,62 @@
         <v>58</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" s="6">
-        <v>6272</v>
+        <v>5276</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>48</v>
+        <v>22</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="19">
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
       </c>
       <c r="C8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E8">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F8" s="6">
-        <v>6850</v>
+        <v>4465</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>54</v>
+        <v>44</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="19">
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="1" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -960,32 +991,68 @@
         <v>58</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="F9" s="6">
-        <v>7200</v>
+        <v>3960</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="7" t="s">
-        <v>57</v>
+        <v>41</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>55</v>
+        <v>20</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="16">
+      <c r="A10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="5">
+        <v>3.5</v>
+      </c>
+      <c r="F10" s="6">
+        <v>3654</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J10">
+    <sortCondition descending="1" ref="E2:E10"/>
+    <sortCondition descending="1" ref="F2:F10"/>
+  </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="J4" r:id="rId1" xr:uid="{66811455-412B-4D41-95C1-C69A0B4B0A54}"/>
-    <hyperlink ref="J6" r:id="rId2" xr:uid="{C8F92EA1-05BA-B041-B021-51F6FA9932AF}"/>
+    <hyperlink ref="J9" r:id="rId1" xr:uid="{66811455-412B-4D41-95C1-C69A0B4B0A54}"/>
+    <hyperlink ref="J7" r:id="rId2" xr:uid="{C8F92EA1-05BA-B041-B021-51F6FA9932AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
